--- a/02-autodock-vina/11-Ca1.2_ID_8EOG/results/results.xlsx
+++ b/02-autodock-vina/11-Ca1.2_ID_8EOG/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\github\bio\docking\vina\11-Ca1.2_ID_8EOG\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\github\bio\docking\02-autodock-vina\11-Ca1.2_ID_8EOG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF7B6E8-DE3D-44D0-A4BF-1230CAEEF9EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8325E8C-AF2A-4C36-8F84-6DC7A221E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>Affinity (kcal/mol)</t>
   </si>
@@ -34,72 +43,6 @@
     <t>RMSD l.b.</t>
   </si>
   <si>
-    <t>ligand_1_2_3_4_tetra_galloyl_glucose-out_ligand_09</t>
-  </si>
-  <si>
-    <t>ligand_1_2_tetra_galloyl_glucose-out_ligand_08</t>
-  </si>
-  <si>
-    <t>ligand_1_3_6_tri_galloyl_glucose-out_ligand_05</t>
-  </si>
-  <si>
-    <t>ligand_2_3_4_6_tetra_galloyl_glucose-out_ligand_10</t>
-  </si>
-  <si>
-    <t>ligand_3PE-out_ligand_01</t>
-  </si>
-  <si>
-    <t>ligand_acarbose-out_ligand_07</t>
-  </si>
-  <si>
-    <t>ligand_amlodipine-out_ligand_03</t>
-  </si>
-  <si>
-    <t>ligand_anestezin-out_ligand_04</t>
-  </si>
-  <si>
-    <t>ligand_cynaroside-out_ligand_06</t>
-  </si>
-  <si>
-    <t>ligand_dihidroquercetin-out_ligand_08</t>
-  </si>
-  <si>
-    <t>ligand_ecdysteron-out_ligand_09</t>
-  </si>
-  <si>
-    <t>ligand_firulacid-out_ligand_08</t>
-  </si>
-  <si>
-    <t>ligand_gallic_acid-out_ligand_05</t>
-  </si>
-  <si>
-    <t>ligand_luteolin-out_ligand_06</t>
-  </si>
-  <si>
-    <t>ligand_nifedipine-out_ligand_07</t>
-  </si>
-  <si>
-    <t>ligand_plantaginin-out_ligand_05</t>
-  </si>
-  <si>
-    <t>ligand_quercetin-out_ligand_04</t>
-  </si>
-  <si>
-    <t>ligand_rosavin-out_ligand_04</t>
-  </si>
-  <si>
-    <t>ligand_rutin-out_ligand_06</t>
-  </si>
-  <si>
-    <t>ligand_salidrodside-out_ligand_06</t>
-  </si>
-  <si>
-    <t>ligand_turkesterone-out_ligand_02</t>
-  </si>
-  <si>
-    <t>ligand_verapamil-out_ligand_05</t>
-  </si>
-  <si>
     <t>ligand_1_2_3_4_tetra_galloyl_glucose</t>
   </si>
   <si>
@@ -203,6 +146,30 @@
   </si>
   <si>
     <t>1_2_di_galloyl_glucose</t>
+  </si>
+  <si>
+    <t>Chlorogenic acid</t>
+  </si>
+  <si>
+    <t>Cynarine</t>
+  </si>
+  <si>
+    <t>Hyperoside</t>
+  </si>
+  <si>
+    <t>Malic acid</t>
+  </si>
+  <si>
+    <t>Quinic acid</t>
+  </si>
+  <si>
+    <t>Rutin</t>
+  </si>
+  <si>
+    <t>Tricin</t>
+  </si>
+  <si>
+    <t>RMSD u.b.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +282,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,150 +605,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AMJ25"/>
+  <dimension ref="A2:AMJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="68.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
     <col min="6" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>23</v>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.3609999999999998</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>12.247</v>
+      </c>
+      <c r="E4" s="9">
+        <v>14.785</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-7.4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.778</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.2519999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-4.2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-5.9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-8.1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6.4560000000000004</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10.965</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-6.6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.7029999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -784,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AMJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -803,57 +763,57 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V3" s="7"/>
     </row>
@@ -897,7 +857,7 @@
       </c>
       <c r="V4" s="7"/>
       <c r="Z4" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="8">
         <v>-8.99</v>
@@ -949,7 +909,7 @@
       </c>
       <c r="V5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="8">
         <v>-8.2799999999999994</v>
@@ -1000,7 +960,7 @@
         <v>13.702</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AA6" s="8">
         <v>-7.99</v>
@@ -1052,7 +1012,7 @@
       </c>
       <c r="V7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="8">
         <v>-7.98</v>
@@ -1103,7 +1063,7 @@
         <v>9.8010000000000002</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AA8" s="8">
         <v>-7.92</v>
@@ -1154,7 +1114,7 @@
         <v>12.670999999999999</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="AA9" s="8">
         <v>-7.81</v>
@@ -1206,7 +1166,7 @@
       </c>
       <c r="V10" s="7"/>
       <c r="Z10" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="AA10" s="8">
         <v>-7.66</v>
@@ -1257,7 +1217,7 @@
         <v>3.1</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AA11" s="8">
         <v>-7.49</v>
@@ -1308,7 +1268,7 @@
         <v>12.74</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="8">
         <v>-7.45</v>
@@ -1359,7 +1319,7 @@
         <v>14.042999999999999</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="8">
         <v>-7.17</v>
@@ -1428,13 +1388,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="60.75" x14ac:dyDescent="0.3">
@@ -1443,31 +1403,31 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1845,25 +1805,25 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1874,43 +1834,43 @@
     <row r="30" spans="1:19" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2447,25 +2407,25 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -2476,43 +2436,43 @@
     <row r="44" spans="1:19" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3049,25 +3009,25 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -3078,43 +3038,43 @@
     <row r="58" spans="1:19" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -3651,19 +3611,19 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -3678,33 +3638,33 @@
     <row r="72" spans="1:19" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
